--- a/config_hlw/fish_3d_yutu_random_3.xlsx
+++ b/config_hlw/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +306,6 @@
   </si>
   <si>
     <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1140,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1169,10 +1161,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1180,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1192,7 +1184,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1202,10 +1194,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1214,7 +1206,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1224,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1236,7 +1228,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1246,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="11">
         <v>300</v>
@@ -1266,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>52</v>
@@ -1286,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1307,10 +1299,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1329,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>49</v>
@@ -1351,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>49</v>
@@ -1372,10 +1364,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -1395,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>51</v>
@@ -1418,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>51</v>
@@ -1435,57 +1427,57 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" s="11">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="11">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="11">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1494,50 +1486,28 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="11">
-        <v>3000</v>
-      </c>
-      <c r="E17" s="11">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C17" s="19"/>
+      <c r="F17" s="23"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="F18" s="23"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="19"/>
       <c r="F19" s="23"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="19"/>
-      <c r="F20" s="23"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2267,13 +2237,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2282,13 +2252,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2297,13 +2267,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2312,13 +2282,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
